--- a/Datos/libros/convert/xlsx/Tomas Moro - Utopía_esp.xlsx
+++ b/Datos/libros/convert/xlsx/Tomas Moro - Utopía_esp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7ba5ab37b782061/Estudios/UNI/Curso NLP/Proyecto/Traductor-Quechua-Spanish-Spanish-Quechua/Datos/libros/convert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7ba5ab37b782061/Estudios/UNI/Curso NLP/Proyecto/Traductor-Quechua-Spanish-Spanish-Quechua/Datos/libros/convert/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{7CFA883F-8A2E-49F7-91DF-410EF699A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="31800" xr2:uid="{2D48592D-C034-4701-8B3D-D50C527FF78C}"/>
+    <workbookView xWindow="16080" yWindow="6105" windowWidth="43200" windowHeight="23535" xr2:uid="{2D48592D-C034-4701-8B3D-D50C527FF78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2924,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2840B114-19AA-4EB1-A83A-3058F7E1375E}">
   <dimension ref="A1:A845"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132:XFD132"/>
+    <sheetView tabSelected="1" topLeftCell="A818" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A845" sqref="A845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
